--- a/数据库表示例.xlsx
+++ b/数据库表示例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\叼只羊1\Desktop\数据结构课设\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6352AB1A-8209-42C6-A8FD-A8252CF0864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB67FD1-0552-466B-82DB-86681EDDD794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
@@ -1911,10 +1911,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -9280,10 +9283,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5154558-D3F0-49FE-8404-3F96B1BF4F8F}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I388" sqref="I388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13316,6 +13319,4006 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>94</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D202">
+        <v>15</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>204</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D203">
+        <v>30</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>224</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="D204">
+        <v>24</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>392</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D205">
+        <v>13</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>500</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>79</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>439</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D208">
+        <v>66</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>414</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D209">
+        <v>48</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>365</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D210">
+        <v>69</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="F210" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>478</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D211">
+        <v>58</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="F211" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>446</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D212">
+        <v>38</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>482</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="D213">
+        <v>60</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>484</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D214">
+        <v>32</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>327</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="F215" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>354</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D216">
+        <v>54</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>147</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D217">
+        <v>62</v>
+      </c>
+      <c r="E217">
+        <v>6</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>287</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>33</v>
+      </c>
+      <c r="E218">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>179</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D219">
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+      <c r="F219" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>240</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220">
+        <v>7</v>
+      </c>
+      <c r="F220" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>425</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D221">
+        <v>63</v>
+      </c>
+      <c r="E221">
+        <v>7</v>
+      </c>
+      <c r="F221" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>155</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D222">
+        <v>8</v>
+      </c>
+      <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>451</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D223">
+        <v>51</v>
+      </c>
+      <c r="E223">
+        <v>7</v>
+      </c>
+      <c r="F223" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>133</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D224">
+        <v>59</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>344</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D225">
+        <v>50</v>
+      </c>
+      <c r="E225">
+        <v>8</v>
+      </c>
+      <c r="F225" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>303</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D226">
+        <v>57</v>
+      </c>
+      <c r="E226">
+        <v>9</v>
+      </c>
+      <c r="F226" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>97</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D227">
+        <v>21</v>
+      </c>
+      <c r="E227">
+        <v>9</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>325</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D228">
+        <v>65</v>
+      </c>
+      <c r="E228">
+        <v>10</v>
+      </c>
+      <c r="F228" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>73</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D229">
+        <v>23</v>
+      </c>
+      <c r="E229">
+        <v>10</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>71</v>
+      </c>
+      <c r="C230" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D230">
+        <v>33</v>
+      </c>
+      <c r="E230">
+        <v>11</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>155</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D231">
+        <v>70</v>
+      </c>
+      <c r="E231">
+        <v>11</v>
+      </c>
+      <c r="F231" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>164</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>11</v>
+      </c>
+      <c r="F232" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>441</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D233">
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>11</v>
+      </c>
+      <c r="F233" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>300</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D234">
+        <v>60</v>
+      </c>
+      <c r="E234">
+        <v>12</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>426</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D235">
+        <v>69</v>
+      </c>
+      <c r="E235">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>265</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D236">
+        <v>21</v>
+      </c>
+      <c r="E236">
+        <v>13</v>
+      </c>
+      <c r="F236" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>88</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D237">
+        <v>48</v>
+      </c>
+      <c r="E237">
+        <v>13</v>
+      </c>
+      <c r="F237" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>117</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D238">
+        <v>28</v>
+      </c>
+      <c r="E238">
+        <v>13</v>
+      </c>
+      <c r="F238" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>498</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>14</v>
+      </c>
+      <c r="F239" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>369</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D240">
+        <v>41</v>
+      </c>
+      <c r="E240">
+        <v>14</v>
+      </c>
+      <c r="F240" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>399</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241">
+        <v>15</v>
+      </c>
+      <c r="F241" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>450</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="D242">
+        <v>54</v>
+      </c>
+      <c r="E242">
+        <v>15</v>
+      </c>
+      <c r="F242" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>75</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D243">
+        <v>29</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+      <c r="F243" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>214</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244">
+        <v>16</v>
+      </c>
+      <c r="F244" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>152</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D245">
+        <v>29</v>
+      </c>
+      <c r="E245">
+        <v>16</v>
+      </c>
+      <c r="F245" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>192</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D246">
+        <v>56</v>
+      </c>
+      <c r="E246">
+        <v>16</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>146</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247">
+        <v>16</v>
+      </c>
+      <c r="F247" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>256</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D248">
+        <v>22</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
+      </c>
+      <c r="F248" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>205</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D249">
+        <v>18</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
+      </c>
+      <c r="F249" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>413</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D250">
+        <v>59</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
+      </c>
+      <c r="F250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>398</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D251">
+        <v>41</v>
+      </c>
+      <c r="E251">
+        <v>18</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>325</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
+      </c>
+      <c r="F252" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>301</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>18</v>
+      </c>
+      <c r="F253" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>406</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D254">
+        <v>30</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>406</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D255">
+        <v>31</v>
+      </c>
+      <c r="E255">
+        <v>19</v>
+      </c>
+      <c r="F255" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>91</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D256">
+        <v>40</v>
+      </c>
+      <c r="E256">
+        <v>19</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>216</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D257">
+        <v>69</v>
+      </c>
+      <c r="E257">
+        <v>19</v>
+      </c>
+      <c r="F257" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>459</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D258">
+        <v>28</v>
+      </c>
+      <c r="E258">
+        <v>19</v>
+      </c>
+      <c r="F258" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>95</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D259">
+        <v>36</v>
+      </c>
+      <c r="E259">
+        <v>20</v>
+      </c>
+      <c r="F259" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>95</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D260">
+        <v>61</v>
+      </c>
+      <c r="E260">
+        <v>20</v>
+      </c>
+      <c r="F260" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>373</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D261">
+        <v>51</v>
+      </c>
+      <c r="E261">
+        <v>21</v>
+      </c>
+      <c r="F261" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>437</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D262">
+        <v>22</v>
+      </c>
+      <c r="E262">
+        <v>21</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>171</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D263">
+        <v>43</v>
+      </c>
+      <c r="E263">
+        <v>22</v>
+      </c>
+      <c r="F263" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>154</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D264">
+        <v>52</v>
+      </c>
+      <c r="E264">
+        <v>22</v>
+      </c>
+      <c r="F264" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>283</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D265">
+        <v>49</v>
+      </c>
+      <c r="E265">
+        <v>22</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>163</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D266">
+        <v>26</v>
+      </c>
+      <c r="E266">
+        <v>23</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>333</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D267">
+        <v>26</v>
+      </c>
+      <c r="E267">
+        <v>23</v>
+      </c>
+      <c r="F267" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>434</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D268">
+        <v>46</v>
+      </c>
+      <c r="E268">
+        <v>24</v>
+      </c>
+      <c r="F268" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>123</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269">
+        <v>24</v>
+      </c>
+      <c r="F269" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>311</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D270">
+        <v>40</v>
+      </c>
+      <c r="E270">
+        <v>25</v>
+      </c>
+      <c r="F270" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>280</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D271">
+        <v>55</v>
+      </c>
+      <c r="E271">
+        <v>25</v>
+      </c>
+      <c r="F271" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>270</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D272">
+        <v>6</v>
+      </c>
+      <c r="E272">
+        <v>26</v>
+      </c>
+      <c r="F272" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>136</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D273">
+        <v>56</v>
+      </c>
+      <c r="E273">
+        <v>26</v>
+      </c>
+      <c r="F273" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>245</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D274">
+        <v>18</v>
+      </c>
+      <c r="E274">
+        <v>26</v>
+      </c>
+      <c r="F274" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>451</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D275">
+        <v>14</v>
+      </c>
+      <c r="E275">
+        <v>27</v>
+      </c>
+      <c r="F275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>176</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="D276">
+        <v>23</v>
+      </c>
+      <c r="E276">
+        <v>27</v>
+      </c>
+      <c r="F276" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>497</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D277">
+        <v>5</v>
+      </c>
+      <c r="E277">
+        <v>28</v>
+      </c>
+      <c r="F277" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>270</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D278">
+        <v>35</v>
+      </c>
+      <c r="E278">
+        <v>28</v>
+      </c>
+      <c r="F278" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>420</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="D279">
+        <v>39</v>
+      </c>
+      <c r="E279">
+        <v>29</v>
+      </c>
+      <c r="F279" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>276</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D280">
+        <v>15</v>
+      </c>
+      <c r="E280">
+        <v>29</v>
+      </c>
+      <c r="F280" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>432</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D281">
+        <v>25</v>
+      </c>
+      <c r="E281">
+        <v>29</v>
+      </c>
+      <c r="F281" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>251</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D282">
+        <v>42</v>
+      </c>
+      <c r="E282">
+        <v>30</v>
+      </c>
+      <c r="F282" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>289</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+      <c r="E283">
+        <v>30</v>
+      </c>
+      <c r="F283" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>71</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D284">
+        <v>65</v>
+      </c>
+      <c r="E284">
+        <v>30</v>
+      </c>
+      <c r="F284" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>233</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D285">
+        <v>45</v>
+      </c>
+      <c r="E285">
+        <v>31</v>
+      </c>
+      <c r="F285" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>306</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D286">
+        <v>67</v>
+      </c>
+      <c r="E286">
+        <v>31</v>
+      </c>
+      <c r="F286" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>79</v>
+      </c>
+      <c r="C287" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+      <c r="E287">
+        <v>31</v>
+      </c>
+      <c r="F287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>285</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D288">
+        <v>36</v>
+      </c>
+      <c r="E288">
+        <v>31</v>
+      </c>
+      <c r="F288" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>371</v>
+      </c>
+      <c r="C289" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D289">
+        <v>27</v>
+      </c>
+      <c r="E289">
+        <v>32</v>
+      </c>
+      <c r="F289" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>160</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D290">
+        <v>22</v>
+      </c>
+      <c r="E290">
+        <v>32</v>
+      </c>
+      <c r="F290" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>347</v>
+      </c>
+      <c r="C291" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D291">
+        <v>54</v>
+      </c>
+      <c r="E291">
+        <v>32</v>
+      </c>
+      <c r="F291" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>424</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D292">
+        <v>13</v>
+      </c>
+      <c r="E292">
+        <v>33</v>
+      </c>
+      <c r="F292" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>484</v>
+      </c>
+      <c r="C293" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D293">
+        <v>7</v>
+      </c>
+      <c r="E293">
+        <v>33</v>
+      </c>
+      <c r="F293" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>164</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D294">
+        <v>60</v>
+      </c>
+      <c r="E294">
+        <v>33</v>
+      </c>
+      <c r="F294" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>478</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D295">
+        <v>9</v>
+      </c>
+      <c r="E295">
+        <v>33</v>
+      </c>
+      <c r="F295" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>395</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D296">
+        <v>35</v>
+      </c>
+      <c r="E296">
+        <v>34</v>
+      </c>
+      <c r="F296" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>465</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D297">
+        <v>47</v>
+      </c>
+      <c r="E297">
+        <v>34</v>
+      </c>
+      <c r="F297" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>486</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D298">
+        <v>22</v>
+      </c>
+      <c r="E298">
+        <v>34</v>
+      </c>
+      <c r="F298" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>483</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D299">
+        <v>27</v>
+      </c>
+      <c r="E299">
+        <v>35</v>
+      </c>
+      <c r="F299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>385</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D300">
+        <v>57</v>
+      </c>
+      <c r="E300">
+        <v>36</v>
+      </c>
+      <c r="F300" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>483</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D301">
+        <v>41</v>
+      </c>
+      <c r="E301">
+        <v>36</v>
+      </c>
+      <c r="F301" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>375</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D302">
+        <v>32</v>
+      </c>
+      <c r="E302">
+        <v>37</v>
+      </c>
+      <c r="F302" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>55</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D303">
+        <v>47</v>
+      </c>
+      <c r="E303">
+        <v>37</v>
+      </c>
+      <c r="F303" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>343</v>
+      </c>
+      <c r="C304" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D304">
+        <v>34</v>
+      </c>
+      <c r="E304">
+        <v>37</v>
+      </c>
+      <c r="F304" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>316</v>
+      </c>
+      <c r="C305" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D305">
+        <v>30</v>
+      </c>
+      <c r="E305">
+        <v>38</v>
+      </c>
+      <c r="F305" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>86</v>
+      </c>
+      <c r="C306" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D306">
+        <v>50</v>
+      </c>
+      <c r="E306">
+        <v>38</v>
+      </c>
+      <c r="F306" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>399</v>
+      </c>
+      <c r="C307" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D307">
+        <v>11</v>
+      </c>
+      <c r="E307">
+        <v>38</v>
+      </c>
+      <c r="F307" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>256</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D308">
+        <v>46</v>
+      </c>
+      <c r="E308">
+        <v>38</v>
+      </c>
+      <c r="F308" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>52</v>
+      </c>
+      <c r="C309" s="2">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>50</v>
+      </c>
+      <c r="E309">
+        <v>39</v>
+      </c>
+      <c r="F309" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>223</v>
+      </c>
+      <c r="C310" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D310">
+        <v>68</v>
+      </c>
+      <c r="E310">
+        <v>39</v>
+      </c>
+      <c r="F310" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>107</v>
+      </c>
+      <c r="C311" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D311">
+        <v>8</v>
+      </c>
+      <c r="E311">
+        <v>39</v>
+      </c>
+      <c r="F311" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>466</v>
+      </c>
+      <c r="C312" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D312">
+        <v>67</v>
+      </c>
+      <c r="E312">
+        <v>39</v>
+      </c>
+      <c r="F312" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>406</v>
+      </c>
+      <c r="C313" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D313">
+        <v>55</v>
+      </c>
+      <c r="E313">
+        <v>40</v>
+      </c>
+      <c r="F313" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>154</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D314">
+        <v>28</v>
+      </c>
+      <c r="E314">
+        <v>41</v>
+      </c>
+      <c r="F314" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>234</v>
+      </c>
+      <c r="C315" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D315">
+        <v>56</v>
+      </c>
+      <c r="E315">
+        <v>42</v>
+      </c>
+      <c r="F315" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>451</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D316">
+        <v>25</v>
+      </c>
+      <c r="E316">
+        <v>42</v>
+      </c>
+      <c r="F316" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>67</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D317">
+        <v>58</v>
+      </c>
+      <c r="E317">
+        <v>42</v>
+      </c>
+      <c r="F317" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>230</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D318">
+        <v>51</v>
+      </c>
+      <c r="E318">
+        <v>43</v>
+      </c>
+      <c r="F318" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>83</v>
+      </c>
+      <c r="C319" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D319">
+        <v>67</v>
+      </c>
+      <c r="E319">
+        <v>43</v>
+      </c>
+      <c r="F319" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>348</v>
+      </c>
+      <c r="C320" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D320">
+        <v>19</v>
+      </c>
+      <c r="E320">
+        <v>44</v>
+      </c>
+      <c r="F320" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>101</v>
+      </c>
+      <c r="C321" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D321">
+        <v>31</v>
+      </c>
+      <c r="E321">
+        <v>44</v>
+      </c>
+      <c r="F321" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>346</v>
+      </c>
+      <c r="C322" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D322">
+        <v>52</v>
+      </c>
+      <c r="E322">
+        <v>44</v>
+      </c>
+      <c r="F322" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>241</v>
+      </c>
+      <c r="C323" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>44</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>456</v>
+      </c>
+      <c r="C324" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D324">
+        <v>70</v>
+      </c>
+      <c r="E324">
+        <v>45</v>
+      </c>
+      <c r="F324" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>295</v>
+      </c>
+      <c r="C325" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D325">
+        <v>59</v>
+      </c>
+      <c r="E325">
+        <v>45</v>
+      </c>
+      <c r="F325" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>158</v>
+      </c>
+      <c r="C326" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D326">
+        <v>24</v>
+      </c>
+      <c r="E326">
+        <v>45</v>
+      </c>
+      <c r="F326" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>129</v>
+      </c>
+      <c r="C327" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D327">
+        <v>62</v>
+      </c>
+      <c r="E327">
+        <v>45</v>
+      </c>
+      <c r="F327" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>221</v>
+      </c>
+      <c r="C328" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D328">
+        <v>58</v>
+      </c>
+      <c r="E328">
+        <v>46</v>
+      </c>
+      <c r="F328" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>423</v>
+      </c>
+      <c r="C329" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D329">
+        <v>44</v>
+      </c>
+      <c r="E329">
+        <v>46</v>
+      </c>
+      <c r="F329" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>255</v>
+      </c>
+      <c r="C330" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D330">
+        <v>55</v>
+      </c>
+      <c r="E330">
+        <v>46</v>
+      </c>
+      <c r="F330" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>282</v>
+      </c>
+      <c r="C331" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D331">
+        <v>61</v>
+      </c>
+      <c r="E331">
+        <v>46</v>
+      </c>
+      <c r="F331" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>141</v>
+      </c>
+      <c r="C332" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D332">
+        <v>19</v>
+      </c>
+      <c r="E332">
+        <v>47</v>
+      </c>
+      <c r="F332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>419</v>
+      </c>
+      <c r="C333" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D333">
+        <v>9</v>
+      </c>
+      <c r="E333">
+        <v>47</v>
+      </c>
+      <c r="F333" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>290</v>
+      </c>
+      <c r="C334" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D334">
+        <v>42</v>
+      </c>
+      <c r="E334">
+        <v>47</v>
+      </c>
+      <c r="F334" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>124</v>
+      </c>
+      <c r="C335" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D335">
+        <v>63</v>
+      </c>
+      <c r="E335">
+        <v>48</v>
+      </c>
+      <c r="F335" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>491</v>
+      </c>
+      <c r="C336" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>48</v>
+      </c>
+      <c r="F336" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>274</v>
+      </c>
+      <c r="C337" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D337">
+        <v>65</v>
+      </c>
+      <c r="E337">
+        <v>49</v>
+      </c>
+      <c r="F337" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>311</v>
+      </c>
+      <c r="C338" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D338">
+        <v>53</v>
+      </c>
+      <c r="E338">
+        <v>49</v>
+      </c>
+      <c r="F338" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>479</v>
+      </c>
+      <c r="C339" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D339">
+        <v>61</v>
+      </c>
+      <c r="E339">
+        <v>49</v>
+      </c>
+      <c r="F339" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>212</v>
+      </c>
+      <c r="C340" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D340">
+        <v>9</v>
+      </c>
+      <c r="E340">
+        <v>50</v>
+      </c>
+      <c r="F340" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>500</v>
+      </c>
+      <c r="C341" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D341">
+        <v>26</v>
+      </c>
+      <c r="E341">
+        <v>50</v>
+      </c>
+      <c r="F341" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>104</v>
+      </c>
+      <c r="C342" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D342">
+        <v>66</v>
+      </c>
+      <c r="E342">
+        <v>50</v>
+      </c>
+      <c r="F342" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>277</v>
+      </c>
+      <c r="C343" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D343">
+        <v>67</v>
+      </c>
+      <c r="E343">
+        <v>51</v>
+      </c>
+      <c r="F343" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>462</v>
+      </c>
+      <c r="C344" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D344">
+        <v>42</v>
+      </c>
+      <c r="E344">
+        <v>51</v>
+      </c>
+      <c r="F344" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>247</v>
+      </c>
+      <c r="C345" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D345">
+        <v>36</v>
+      </c>
+      <c r="E345">
+        <v>51</v>
+      </c>
+      <c r="F345" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>177</v>
+      </c>
+      <c r="C346" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D346">
+        <v>47</v>
+      </c>
+      <c r="E346">
+        <v>52</v>
+      </c>
+      <c r="F346" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>73</v>
+      </c>
+      <c r="C347" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="D347">
+        <v>40</v>
+      </c>
+      <c r="E347">
+        <v>52</v>
+      </c>
+      <c r="F347" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>259</v>
+      </c>
+      <c r="C348" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D348">
+        <v>26</v>
+      </c>
+      <c r="E348">
+        <v>52</v>
+      </c>
+      <c r="F348" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>127</v>
+      </c>
+      <c r="C349" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D349">
+        <v>51</v>
+      </c>
+      <c r="E349">
+        <v>53</v>
+      </c>
+      <c r="F349" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>327</v>
+      </c>
+      <c r="C350" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D350">
+        <v>33</v>
+      </c>
+      <c r="E350">
+        <v>53</v>
+      </c>
+      <c r="F350" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>498</v>
+      </c>
+      <c r="C351" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D351">
+        <v>16</v>
+      </c>
+      <c r="E351">
+        <v>54</v>
+      </c>
+      <c r="F351" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>119</v>
+      </c>
+      <c r="C352" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D352">
+        <v>23</v>
+      </c>
+      <c r="E352">
+        <v>54</v>
+      </c>
+      <c r="F352" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>329</v>
+      </c>
+      <c r="C353" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D353">
+        <v>39</v>
+      </c>
+      <c r="E353">
+        <v>54</v>
+      </c>
+      <c r="F353" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>113</v>
+      </c>
+      <c r="C354" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D354">
+        <v>68</v>
+      </c>
+      <c r="E354">
+        <v>55</v>
+      </c>
+      <c r="F354" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>112</v>
+      </c>
+      <c r="C355" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D355">
+        <v>69</v>
+      </c>
+      <c r="E355">
+        <v>55</v>
+      </c>
+      <c r="F355" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>298</v>
+      </c>
+      <c r="C356" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D356">
+        <v>12</v>
+      </c>
+      <c r="E356">
+        <v>55</v>
+      </c>
+      <c r="F356" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>400</v>
+      </c>
+      <c r="C357" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D357">
+        <v>23</v>
+      </c>
+      <c r="E357">
+        <v>56</v>
+      </c>
+      <c r="F357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>97</v>
+      </c>
+      <c r="C358" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D358">
+        <v>14</v>
+      </c>
+      <c r="E358">
+        <v>56</v>
+      </c>
+      <c r="F358" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>376</v>
+      </c>
+      <c r="C359" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D359">
+        <v>37</v>
+      </c>
+      <c r="E359">
+        <v>56</v>
+      </c>
+      <c r="F359" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>415</v>
+      </c>
+      <c r="C360" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D360">
+        <v>15</v>
+      </c>
+      <c r="E360">
+        <v>56</v>
+      </c>
+      <c r="F360" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>215</v>
+      </c>
+      <c r="C361" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+      <c r="E361">
+        <v>57</v>
+      </c>
+      <c r="F361" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>176</v>
+      </c>
+      <c r="C362" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D362">
+        <v>43</v>
+      </c>
+      <c r="E362">
+        <v>57</v>
+      </c>
+      <c r="F362" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>97</v>
+      </c>
+      <c r="C363" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D363">
+        <v>17</v>
+      </c>
+      <c r="E363">
+        <v>57</v>
+      </c>
+      <c r="F363" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>285</v>
+      </c>
+      <c r="C364" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="D364">
+        <v>28</v>
+      </c>
+      <c r="E364">
+        <v>58</v>
+      </c>
+      <c r="F364" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>149</v>
+      </c>
+      <c r="C365" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D365">
+        <v>39</v>
+      </c>
+      <c r="E365">
+        <v>58</v>
+      </c>
+      <c r="F365" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>300</v>
+      </c>
+      <c r="C366" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D366">
+        <v>34</v>
+      </c>
+      <c r="E366">
+        <v>58</v>
+      </c>
+      <c r="F366" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>313</v>
+      </c>
+      <c r="C367" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>59</v>
+      </c>
+      <c r="F367" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>365</v>
+      </c>
+      <c r="C368" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D368">
+        <v>6</v>
+      </c>
+      <c r="E368">
+        <v>59</v>
+      </c>
+      <c r="F368" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>248</v>
+      </c>
+      <c r="C369" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="D369">
+        <v>53</v>
+      </c>
+      <c r="E369">
+        <v>59</v>
+      </c>
+      <c r="F369" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>149</v>
+      </c>
+      <c r="C370" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D370">
+        <v>12</v>
+      </c>
+      <c r="E370">
+        <v>60</v>
+      </c>
+      <c r="F370" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>111</v>
+      </c>
+      <c r="C371" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D371">
+        <v>7</v>
+      </c>
+      <c r="E371">
+        <v>60</v>
+      </c>
+      <c r="F371" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>434</v>
+      </c>
+      <c r="C372" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D372">
+        <v>19</v>
+      </c>
+      <c r="E372">
+        <v>61</v>
+      </c>
+      <c r="F372" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>384</v>
+      </c>
+      <c r="C373" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D373">
+        <v>64</v>
+      </c>
+      <c r="E373">
+        <v>61</v>
+      </c>
+      <c r="F373" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>394</v>
+      </c>
+      <c r="C374" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D374">
+        <v>20</v>
+      </c>
+      <c r="E374">
+        <v>62</v>
+      </c>
+      <c r="F374" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>360</v>
+      </c>
+      <c r="C375" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D375">
+        <v>21</v>
+      </c>
+      <c r="E375">
+        <v>62</v>
+      </c>
+      <c r="F375" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>241</v>
+      </c>
+      <c r="C376" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D376">
+        <v>57</v>
+      </c>
+      <c r="E376">
+        <v>62</v>
+      </c>
+      <c r="F376" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>180</v>
+      </c>
+      <c r="C377" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D377">
+        <v>53</v>
+      </c>
+      <c r="E377">
+        <v>63</v>
+      </c>
+      <c r="F377" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>489</v>
+      </c>
+      <c r="C378" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D378">
+        <v>13</v>
+      </c>
+      <c r="E378">
+        <v>63</v>
+      </c>
+      <c r="F378" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>444</v>
+      </c>
+      <c r="C379" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D379">
+        <v>4</v>
+      </c>
+      <c r="E379">
+        <v>63</v>
+      </c>
+      <c r="F379" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>213</v>
+      </c>
+      <c r="C380" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D380">
+        <v>18</v>
+      </c>
+      <c r="E380">
+        <v>64</v>
+      </c>
+      <c r="F380" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>385</v>
+      </c>
+      <c r="C381" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D381">
+        <v>17</v>
+      </c>
+      <c r="E381">
+        <v>64</v>
+      </c>
+      <c r="F381" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>329</v>
+      </c>
+      <c r="C382" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D382">
+        <v>44</v>
+      </c>
+      <c r="E382">
+        <v>64</v>
+      </c>
+      <c r="F382" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>418</v>
+      </c>
+      <c r="C383" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D383">
+        <v>38</v>
+      </c>
+      <c r="E383">
+        <v>64</v>
+      </c>
+      <c r="F383" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>161</v>
+      </c>
+      <c r="C384" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D384">
+        <v>20</v>
+      </c>
+      <c r="E384">
+        <v>64</v>
+      </c>
+      <c r="F384" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>301</v>
+      </c>
+      <c r="C385" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D385">
+        <v>47</v>
+      </c>
+      <c r="E385">
+        <v>64</v>
+      </c>
+      <c r="F385" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>340</v>
+      </c>
+      <c r="C386" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D386">
+        <v>25</v>
+      </c>
+      <c r="E386">
+        <v>65</v>
+      </c>
+      <c r="F386" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>469</v>
+      </c>
+      <c r="C387" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D387">
+        <v>29</v>
+      </c>
+      <c r="E387">
+        <v>65</v>
+      </c>
+      <c r="F387" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>68</v>
+      </c>
+      <c r="C388" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D388">
+        <v>64</v>
+      </c>
+      <c r="E388">
+        <v>65</v>
+      </c>
+      <c r="F388" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>369</v>
+      </c>
+      <c r="C389" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D389">
+        <v>24</v>
+      </c>
+      <c r="E389">
+        <v>66</v>
+      </c>
+      <c r="F389" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>144</v>
+      </c>
+      <c r="C390" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D390">
+        <v>31</v>
+      </c>
+      <c r="E390">
+        <v>66</v>
+      </c>
+      <c r="F390" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>282</v>
+      </c>
+      <c r="C391" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D391">
+        <v>61</v>
+      </c>
+      <c r="E391">
+        <v>67</v>
+      </c>
+      <c r="F391" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>141</v>
+      </c>
+      <c r="C392" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+      <c r="E392">
+        <v>67</v>
+      </c>
+      <c r="F392" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>66</v>
+      </c>
+      <c r="C393" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D393">
+        <v>16</v>
+      </c>
+      <c r="E393">
+        <v>68</v>
+      </c>
+      <c r="F393" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>390</v>
+      </c>
+      <c r="C394" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D394">
+        <v>43</v>
+      </c>
+      <c r="E394">
+        <v>68</v>
+      </c>
+      <c r="F394" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>258</v>
+      </c>
+      <c r="C395" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D395">
+        <v>26</v>
+      </c>
+      <c r="E395">
+        <v>68</v>
+      </c>
+      <c r="F395" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>130</v>
+      </c>
+      <c r="C396" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D396">
+        <v>70</v>
+      </c>
+      <c r="E396">
+        <v>69</v>
+      </c>
+      <c r="F396" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>216</v>
+      </c>
+      <c r="C397" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D397">
+        <v>35</v>
+      </c>
+      <c r="E397">
+        <v>69</v>
+      </c>
+      <c r="F397" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>207</v>
+      </c>
+      <c r="C398" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D398">
+        <v>44</v>
+      </c>
+      <c r="E398">
+        <v>69</v>
+      </c>
+      <c r="F398" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>470</v>
+      </c>
+      <c r="C399" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D399">
+        <v>11</v>
+      </c>
+      <c r="E399">
+        <v>70</v>
+      </c>
+      <c r="F399" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>144</v>
+      </c>
+      <c r="C400" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D400">
+        <v>55</v>
+      </c>
+      <c r="E400">
+        <v>70</v>
+      </c>
+      <c r="F400" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>128</v>
+      </c>
+      <c r="C401" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D401">
+        <v>19</v>
+      </c>
+      <c r="E401">
+        <v>70</v>
+      </c>
+      <c r="F401" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A203">
     <sortCondition ref="A1:A203"/>
